--- a/Running projects/NASTP/012- Invoice for Operation and maintenance charges Feb 24.xlsx
+++ b/Running projects/NASTP/012- Invoice for Operation and maintenance charges Feb 24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453AEA0E-9C17-4AC8-9098-C52CE3C0A2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497366FC-60C8-421E-B17C-5775A7573940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>S.#</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Operation and Maintenance charges for HVAC, Fire Fighting &amp; Plumbing pumps at NASTP</t>
   </si>
   <si>
-    <t>To M/S GW Alpha</t>
-  </si>
-  <si>
     <t>BILL</t>
   </si>
   <si>
@@ -109,17 +106,28 @@
     <t>actual received and given to BH</t>
   </si>
   <si>
+    <t>29 Mar 2024</t>
+  </si>
+  <si>
     <t>(Two Million Two Hundred Fourteen Thousand Eight Hundred Only/=).</t>
   </si>
   <si>
-    <t>07 Feb 2024</t>
+    <t xml:space="preserve">NASTP Alpha HQs, Alpha Techno Square,
+Airport Road, Chaklala, Rawalpindi
+</t>
+  </si>
+  <si>
+    <t>NTN # 9139105</t>
+  </si>
+  <si>
+    <t>M/S GWALPHA TECH (PRIVATE) LIMITED</t>
+  </si>
+  <si>
+    <t>012</t>
   </si>
   <si>
     <t>Operarion and Maintenance charges for HVAC, Fire Fighting &amp; Plumbing pumps.
-For the month of January 2024</t>
-  </si>
-  <si>
-    <t>012</t>
+For the month of February 24</t>
   </si>
 </sst>
 </file>
@@ -270,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -378,12 +386,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,9 +464,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +535,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,16 +567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323547</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47237</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>245792</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>439681</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190890</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595191</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>210328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -582,7 +605,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16205027" y="7511727"/>
+          <a:off x="245792" y="9475043"/>
           <a:ext cx="728455" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -594,16 +617,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2457118</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11981</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>882577</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>242986</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>10303</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>865027</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -620,7 +643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12409771" y="2130808"/>
+          <a:off x="1261633" y="313283"/>
           <a:ext cx="4327016" cy="688398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -697,16 +720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1282960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19439</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>87475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2406909</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166785</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>832368</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,7 +753,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11235613" y="1895281"/>
+          <a:off x="87475" y="77756"/>
           <a:ext cx="1123949" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1039,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,43 +1080,47 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="A9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
+      <c r="D11" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
@@ -1108,12 +1135,12 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -1122,12 +1149,12 @@
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
@@ -1136,12 +1163,12 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1153,10 +1180,10 @@
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
@@ -1165,73 +1192,74 @@
       <c r="A23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="34"/>
+      <c r="B23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="25">
+        <f>1960000</f>
         <v>1960000</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="41">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="40">
         <f>SUM(D23:D23)</f>
         <v>1960000</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <v>45200</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="38">
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="J24" s="47" t="s">
-        <v>21</v>
+      <c r="J24" s="46" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="41">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="40">
         <f>D24*13%</f>
         <v>254800</v>
       </c>
-      <c r="J25" s="48"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="42">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="41">
         <f>D25+D24</f>
         <v>2214800</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="J26" s="48"/>
+      <c r="E26" s="31"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="22"/>
-      <c r="H27" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="39">
+      <c r="H27" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="38">
         <v>500000</v>
       </c>
-      <c r="J27" s="48"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1240,18 +1268,18 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
-      <c r="I28" s="39">
+      <c r="I28" s="38">
         <f>I24-I27</f>
         <v>1460000</v>
       </c>
-      <c r="J28" s="48"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="22"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1260,14 +1288,14 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>45231</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="38">
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="J30" s="48"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -1276,24 +1304,24 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
-      <c r="H31" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="39">
+      <c r="H31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="38">
         <v>500000</v>
       </c>
-      <c r="J31" s="48"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
-      <c r="I32" s="39">
+      <c r="I32" s="38">
         <f>I30-I31</f>
         <v>1460000</v>
       </c>
-      <c r="J32" s="49"/>
-    </row>
-    <row r="33" spans="1:10" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="J32" s="48"/>
+    </row>
+    <row r="33" spans="1:10" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="9"/>
@@ -1308,12 +1336,12 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <f>I32+I28</f>
         <v>2920000</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1324,7 +1352,7 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1361,7 +1389,8 @@
       <c r="D42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A10:B12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A20:D20"/>
